--- a/Proyecto/Program_CheckList.xlsx
+++ b/Proyecto/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Services Development\Repository\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F5E13A-2339-4439-8EC0-7E5AE0A27711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431BC84F-6720-47BD-A6BE-342E079A60C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,14 +190,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -484,7 +477,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,8 +531,8 @@
         <v>4</v>
       </c>
       <c r="D3" s="13">
-        <f>(C5*C3)/78</f>
-        <v>10.307692307692308</v>
+        <f>(C5*C3)/201</f>
+        <v>4</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -586,7 +579,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>11.307692307692308</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -596,7 +589,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>201</formula>
     </cfRule>
   </conditionalFormatting>
